--- a/PPT data/3 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepLearning Study\발표자료\DeepLearningStudy\PPT data\3 week\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2015305059\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A6984-C969-461D-A75C-6C4FCEA31945}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" tabRatio="580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -165,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -763,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,53 +778,56 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - 강조색1" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - 강조색2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - 강조색3" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - 강조색4" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - 강조색5" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - 강조색6" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="계산" xfId="14" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="나쁨" xfId="19" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="보통" xfId="20" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="설명텍스트" xfId="44" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="셀 확인" xfId="15" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="연결된 셀" xfId="16" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="요약" xfId="17" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="입력" xfId="12" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="좋음" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="출력" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="20% - 강조색2" xfId="25"/>
+    <cellStyle name="20% - 강조색3" xfId="29"/>
+    <cellStyle name="20% - 강조색4" xfId="33"/>
+    <cellStyle name="20% - 강조색5" xfId="37"/>
+    <cellStyle name="20% - 강조색6" xfId="41"/>
+    <cellStyle name="40% - 강조색1" xfId="22"/>
+    <cellStyle name="40% - 강조색2" xfId="26"/>
+    <cellStyle name="40% - 강조색3" xfId="30"/>
+    <cellStyle name="40% - 강조색4" xfId="34"/>
+    <cellStyle name="40% - 강조색5" xfId="38"/>
+    <cellStyle name="40% - 강조색6" xfId="42"/>
+    <cellStyle name="60% - 강조색1" xfId="23"/>
+    <cellStyle name="60% - 강조색2" xfId="27"/>
+    <cellStyle name="60% - 강조색3" xfId="31"/>
+    <cellStyle name="60% - 강조색4" xfId="35"/>
+    <cellStyle name="60% - 강조색5" xfId="39"/>
+    <cellStyle name="60% - 강조색6" xfId="43"/>
+    <cellStyle name="강조색1" xfId="21"/>
+    <cellStyle name="강조색2" xfId="24"/>
+    <cellStyle name="강조색3" xfId="28"/>
+    <cellStyle name="강조색4" xfId="32"/>
+    <cellStyle name="강조색5" xfId="36"/>
+    <cellStyle name="강조색6" xfId="40"/>
+    <cellStyle name="경고문" xfId="6"/>
+    <cellStyle name="계산" xfId="14"/>
+    <cellStyle name="나쁨" xfId="19"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="보통" xfId="20"/>
+    <cellStyle name="설명텍스트" xfId="44"/>
+    <cellStyle name="셀 확인" xfId="15"/>
+    <cellStyle name="연결된 셀" xfId="16"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
+    <cellStyle name="요약" xfId="17"/>
+    <cellStyle name="입력" xfId="12"/>
+    <cellStyle name="제목" xfId="7"/>
+    <cellStyle name="제목 1" xfId="8"/>
+    <cellStyle name="제목 2" xfId="9"/>
+    <cellStyle name="제목 3" xfId="10"/>
+    <cellStyle name="제목 4" xfId="11"/>
+    <cellStyle name="좋음" xfId="18"/>
+    <cellStyle name="출력" xfId="13"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="하이퍼링크" xfId="4"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1006,7 +1008,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1015,7 +1017,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1327,12 +1329,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1423,36 +1425,264 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
       <c r="U6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1623,35 +1853,35 @@
       </c>
       <c r="B26" s="4">
         <f t="shared" ref="B26:T26" si="1">SUM(B2:B25)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="1"/>
@@ -1659,43 +1889,43 @@
       </c>
       <c r="K26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PPT data/3 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2015305059\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305067\Desktop\deeplearning\DeepLearningStudy\PPT data\3 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1333,8 +1333,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:T5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1707,18 +1707,132 @@
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
       <c r="U10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
       <c r="U11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1853,79 +1967,79 @@
       </c>
       <c r="B26" s="4">
         <f t="shared" ref="B26:T26" si="1">SUM(B2:B25)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T26" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PPT data/3 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305067\Desktop\deeplearning\DeepLearningStudy\PPT data\3 week\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\임시\DeepLearningStudy\PPT data\3 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C073B147-C981-42DD-9513-F41119C74D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" tabRatio="580"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>3,4-(5)</t>
   </si>
@@ -159,12 +160,18 @@
   </si>
   <si>
     <t>윤소민</t>
+  </si>
+  <si>
+    <t>5,6-(7)</t>
+  </si>
+  <si>
+    <t>5,6-(8)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -783,51 +790,51 @@
     </xf>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="20% - 강조색2" xfId="25"/>
-    <cellStyle name="20% - 강조색3" xfId="29"/>
-    <cellStyle name="20% - 강조색4" xfId="33"/>
-    <cellStyle name="20% - 강조색5" xfId="37"/>
-    <cellStyle name="20% - 강조색6" xfId="41"/>
-    <cellStyle name="40% - 강조색1" xfId="22"/>
-    <cellStyle name="40% - 강조색2" xfId="26"/>
-    <cellStyle name="40% - 강조색3" xfId="30"/>
-    <cellStyle name="40% - 강조색4" xfId="34"/>
-    <cellStyle name="40% - 강조색5" xfId="38"/>
-    <cellStyle name="40% - 강조색6" xfId="42"/>
-    <cellStyle name="60% - 강조색1" xfId="23"/>
-    <cellStyle name="60% - 강조색2" xfId="27"/>
-    <cellStyle name="60% - 강조색3" xfId="31"/>
-    <cellStyle name="60% - 강조색4" xfId="35"/>
-    <cellStyle name="60% - 강조색5" xfId="39"/>
-    <cellStyle name="60% - 강조색6" xfId="43"/>
-    <cellStyle name="강조색1" xfId="21"/>
-    <cellStyle name="강조색2" xfId="24"/>
-    <cellStyle name="강조색3" xfId="28"/>
-    <cellStyle name="강조색4" xfId="32"/>
-    <cellStyle name="강조색5" xfId="36"/>
-    <cellStyle name="강조색6" xfId="40"/>
-    <cellStyle name="경고문" xfId="6"/>
-    <cellStyle name="계산" xfId="14"/>
-    <cellStyle name="나쁨" xfId="19"/>
-    <cellStyle name="메모" xfId="1"/>
-    <cellStyle name="보통" xfId="20"/>
-    <cellStyle name="설명텍스트" xfId="44"/>
-    <cellStyle name="셀 확인" xfId="15"/>
-    <cellStyle name="연결된 셀" xfId="16"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
-    <cellStyle name="요약" xfId="17"/>
-    <cellStyle name="입력" xfId="12"/>
-    <cellStyle name="제목" xfId="7"/>
-    <cellStyle name="제목 1" xfId="8"/>
-    <cellStyle name="제목 2" xfId="9"/>
-    <cellStyle name="제목 3" xfId="10"/>
-    <cellStyle name="제목 4" xfId="11"/>
-    <cellStyle name="좋음" xfId="18"/>
-    <cellStyle name="출력" xfId="13"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 강조색1" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 강조색2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 강조색3" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 강조색4" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 강조색5" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 강조색6" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="계산" xfId="14" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="나쁨" xfId="19" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="보통" xfId="20" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="설명텍스트" xfId="44" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="셀 확인" xfId="15" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="연결된 셀" xfId="16" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="요약" xfId="17" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="입력" xfId="12" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="좋음" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="출력" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4"/>
+    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1008,7 +1015,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1017,7 +1024,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1329,12 +1336,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1408,7 +1415,7 @@
         <v>18</v>
       </c>
       <c r="U2" s="2">
-        <f t="shared" ref="U2:U25" si="0">SUM(B2:T2)</f>
+        <f t="shared" ref="U2:U27" si="0">SUM(B2:T2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1884,9 +1891,66 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
       <c r="U17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -1909,25 +1973,74 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="U22" s="2">
         <f t="shared" si="0"/>
@@ -1936,7 +2049,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="U23" s="2">
         <f t="shared" si="0"/>
@@ -1945,7 +2058,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="U24" s="2">
         <f t="shared" si="0"/>
@@ -1954,92 +2067,110 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="U27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
-        <f t="shared" ref="B26:T26" si="1">SUM(B2:B25)</f>
-        <v>4</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B28" s="4">
+        <f t="shared" ref="B28:T28" si="1">SUM(B2:B27)</f>
+        <v>6</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L28" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D26" s="4">
+      <c r="M28" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="R28" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E26" s="4">
+      <c r="S28" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F26" s="4">
+      <c r="T28" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O26" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="P26" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="R26" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="T26" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PPT data/3 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\임시\DeepLearningStudy\PPT data\3 week\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305074\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C073B147-C981-42DD-9513-F41119C74D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -171,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -790,51 +789,51 @@
     </xf>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - 강조색1" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - 강조색2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - 강조색3" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - 강조색4" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - 강조색5" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - 강조색6" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="계산" xfId="14" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="나쁨" xfId="19" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="보통" xfId="20" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="설명텍스트" xfId="44" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="셀 확인" xfId="15" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="연결된 셀" xfId="16" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="요약" xfId="17" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="입력" xfId="12" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="좋음" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="출력" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="20% - 강조색2" xfId="25"/>
+    <cellStyle name="20% - 강조색3" xfId="29"/>
+    <cellStyle name="20% - 강조색4" xfId="33"/>
+    <cellStyle name="20% - 강조색5" xfId="37"/>
+    <cellStyle name="20% - 강조색6" xfId="41"/>
+    <cellStyle name="40% - 강조색1" xfId="22"/>
+    <cellStyle name="40% - 강조색2" xfId="26"/>
+    <cellStyle name="40% - 강조색3" xfId="30"/>
+    <cellStyle name="40% - 강조색4" xfId="34"/>
+    <cellStyle name="40% - 강조색5" xfId="38"/>
+    <cellStyle name="40% - 강조색6" xfId="42"/>
+    <cellStyle name="60% - 강조색1" xfId="23"/>
+    <cellStyle name="60% - 강조색2" xfId="27"/>
+    <cellStyle name="60% - 강조색3" xfId="31"/>
+    <cellStyle name="60% - 강조색4" xfId="35"/>
+    <cellStyle name="60% - 강조색5" xfId="39"/>
+    <cellStyle name="60% - 강조색6" xfId="43"/>
+    <cellStyle name="강조색1" xfId="21"/>
+    <cellStyle name="강조색2" xfId="24"/>
+    <cellStyle name="강조색3" xfId="28"/>
+    <cellStyle name="강조색4" xfId="32"/>
+    <cellStyle name="강조색5" xfId="36"/>
+    <cellStyle name="강조색6" xfId="40"/>
+    <cellStyle name="경고문" xfId="6"/>
+    <cellStyle name="계산" xfId="14"/>
+    <cellStyle name="나쁨" xfId="19"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="보통" xfId="20"/>
+    <cellStyle name="설명텍스트" xfId="44"/>
+    <cellStyle name="셀 확인" xfId="15"/>
+    <cellStyle name="연결된 셀" xfId="16"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
+    <cellStyle name="요약" xfId="17"/>
+    <cellStyle name="입력" xfId="12"/>
+    <cellStyle name="제목" xfId="7"/>
+    <cellStyle name="제목 1" xfId="8"/>
+    <cellStyle name="제목 2" xfId="9"/>
+    <cellStyle name="제목 3" xfId="10"/>
+    <cellStyle name="제목 4" xfId="11"/>
+    <cellStyle name="좋음" xfId="18"/>
+    <cellStyle name="출력" xfId="13"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="하이퍼링크" xfId="4"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1015,7 +1014,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1024,7 +1023,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1336,12 +1335,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1414,18 +1413,132 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
       <c r="U2" s="2">
         <f t="shared" ref="U2:U27" si="0">SUM(B2:T2)</f>
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2098,79 +2211,79 @@
       </c>
       <c r="B28" s="4">
         <f t="shared" ref="B28:T28" si="1">SUM(B2:B27)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T28" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/PPT data/3 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Deep\PPT data\3 week\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28995" windowHeight="15840" tabRatio="580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -165,8 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1330,21 +1335,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>36</v>
@@ -1404,7 +1409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1470,7 +1475,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1536,7 +1541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1734,7 +1739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1800,7 +1805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1866,7 +1871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1932,7 +1937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1998,7 +2003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2064,25 +2069,139 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
         <v>0</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
       <c r="U13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2091,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2154,7 +2273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2229,7 +2348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2238,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -2301,12 +2420,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -2368,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2377,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -2386,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2395,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2413,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -2422,33 +2541,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" ref="B28:T28" si="1">SUM(B2:B27)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="1"/>
@@ -2460,15 +2579,15 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" si="1"/>
@@ -2476,7 +2595,7 @@
       </c>
       <c r="N28" s="4">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="1"/>
@@ -2484,7 +2603,7 @@
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>

--- a/PPT data/3 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Deep\PPT data\3 week\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudwl\Desktop\deeplearning스터디\DeepLearningStudy\PPT data\3 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73422A5-2290-4F2E-9FE8-0DC209D7FFA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28995" windowHeight="15840" tabRatio="580"/>
+    <workbookView xWindow="14685" yWindow="2610" windowWidth="14280" windowHeight="11385" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -170,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -789,51 +790,51 @@
     </xf>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - 강조색1" xfId="2"/>
-    <cellStyle name="20% - 강조색2" xfId="25"/>
-    <cellStyle name="20% - 강조색3" xfId="29"/>
-    <cellStyle name="20% - 강조색4" xfId="33"/>
-    <cellStyle name="20% - 강조색5" xfId="37"/>
-    <cellStyle name="20% - 강조색6" xfId="41"/>
-    <cellStyle name="40% - 강조색1" xfId="22"/>
-    <cellStyle name="40% - 강조색2" xfId="26"/>
-    <cellStyle name="40% - 강조색3" xfId="30"/>
-    <cellStyle name="40% - 강조색4" xfId="34"/>
-    <cellStyle name="40% - 강조색5" xfId="38"/>
-    <cellStyle name="40% - 강조색6" xfId="42"/>
-    <cellStyle name="60% - 강조색1" xfId="23"/>
-    <cellStyle name="60% - 강조색2" xfId="27"/>
-    <cellStyle name="60% - 강조색3" xfId="31"/>
-    <cellStyle name="60% - 강조색4" xfId="35"/>
-    <cellStyle name="60% - 강조색5" xfId="39"/>
-    <cellStyle name="60% - 강조색6" xfId="43"/>
-    <cellStyle name="강조색1" xfId="21"/>
-    <cellStyle name="강조색2" xfId="24"/>
-    <cellStyle name="강조색3" xfId="28"/>
-    <cellStyle name="강조색4" xfId="32"/>
-    <cellStyle name="강조색5" xfId="36"/>
-    <cellStyle name="강조색6" xfId="40"/>
-    <cellStyle name="경고문" xfId="6"/>
-    <cellStyle name="계산" xfId="14"/>
-    <cellStyle name="나쁨" xfId="19"/>
-    <cellStyle name="메모" xfId="1"/>
-    <cellStyle name="보통" xfId="20"/>
-    <cellStyle name="설명텍스트" xfId="44"/>
-    <cellStyle name="셀 확인" xfId="15"/>
-    <cellStyle name="연결된 셀" xfId="16"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
-    <cellStyle name="요약" xfId="17"/>
-    <cellStyle name="입력" xfId="12"/>
-    <cellStyle name="제목" xfId="7"/>
-    <cellStyle name="제목 1" xfId="8"/>
-    <cellStyle name="제목 2" xfId="9"/>
-    <cellStyle name="제목 3" xfId="10"/>
-    <cellStyle name="제목 4" xfId="11"/>
-    <cellStyle name="좋음" xfId="18"/>
-    <cellStyle name="출력" xfId="13"/>
+    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 강조색1" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 강조색2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 강조색3" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 강조색4" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 강조색5" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 강조색6" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="계산" xfId="14" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="나쁨" xfId="19" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="보통" xfId="20" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="설명텍스트" xfId="44" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="셀 확인" xfId="15" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="연결된 셀" xfId="16" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="요약" xfId="17" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="입력" xfId="12" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="좋음" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="출력" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4"/>
+    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1014,7 +1015,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1023,7 +1024,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1335,12 +1336,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2205,9 +2206,66 @@
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.5</v>
+      </c>
       <c r="U14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -2277,9 +2335,12 @@
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
       <c r="U16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -2352,9 +2413,66 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
       <c r="U18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2547,15 +2665,15 @@
       </c>
       <c r="B28" s="4">
         <f t="shared" ref="B28:T28" si="1">SUM(B2:B27)</f>
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
@@ -2563,43 +2681,43 @@
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
@@ -2607,19 +2725,19 @@
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="T28" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>

--- a/PPT data/3 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수.xlsx
@@ -1,29 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudwl\Desktop\deeplearning스터디\DeepLearningStudy\PPT data\3 week\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73422A5-2290-4F2E-9FE8-0DC209D7FFA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="5" rupBuild="8.1.835.35184"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14685" yWindow="2610" windowWidth="14280" windowHeight="11385" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -171,169 +158,188 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="30">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF0563C1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF954F72"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF44546A"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF44546A"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF44546A"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF44546A"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -515,8 +521,152 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -631,15 +781,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -699,7 +956,7 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
@@ -708,10 +965,10 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
@@ -720,10 +977,10 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
@@ -732,10 +989,10 @@
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
@@ -744,10 +1001,10 @@
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
@@ -756,10 +1013,10 @@
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0">
@@ -768,12 +1025,156 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="16" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="49" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="50" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="53" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="54" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -782,59 +1183,104 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="45">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - 강조색1" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - 강조색2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - 강조색3" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - 강조색4" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - 강조색5" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - 강조색6" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="계산" xfId="14" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="나쁨" xfId="19" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="보통" xfId="20" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="설명텍스트" xfId="44" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="셀 확인" xfId="15" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="연결된 셀" xfId="16" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="요약" xfId="17" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="입력" xfId="12" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="좋음" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="출력" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+  <cellStyles count="93">
+    <cellStyle name="20% - 강조색1" xfId="69" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="73" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="77" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="81" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="85" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="89" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="70" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="74" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="78" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="82" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="86" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="90" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="71" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="75" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="79" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="83" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="87" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="91" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="68" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="72" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="76" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="80" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="84" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="88" builtinId="49"/>
+    <cellStyle name="경고문" xfId="53" builtinId="11"/>
+    <cellStyle name="계산" xfId="61" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="66" builtinId="27"/>
+    <cellStyle name="메모" xfId="52" builtinId="10"/>
+    <cellStyle name="백분율" xfId="47" builtinId="5"/>
+    <cellStyle name="보통" xfId="67" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="92" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="62" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="45" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="48" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="63" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="64" builtinId="25"/>
+    <cellStyle name="입력" xfId="59" builtinId="20"/>
+    <cellStyle name="제목" xfId="54" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="55" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="56" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="57" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="58" builtinId="19"/>
+    <cellStyle name="좋음" xfId="65" builtinId="26"/>
+    <cellStyle name="출력" xfId="60" builtinId="21"/>
+    <cellStyle name="통화" xfId="46" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="49" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="하이퍼링크" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="20% - 강조색2" xfId="25"/>
+    <cellStyle name="20% - 강조색3" xfId="29"/>
+    <cellStyle name="20% - 강조색4" xfId="33"/>
+    <cellStyle name="20% - 강조색5" xfId="37"/>
+    <cellStyle name="20% - 강조색6" xfId="41"/>
+    <cellStyle name="40% - 강조색1" xfId="22"/>
+    <cellStyle name="40% - 강조색2" xfId="26"/>
+    <cellStyle name="40% - 강조색3" xfId="30"/>
+    <cellStyle name="40% - 강조색4" xfId="34"/>
+    <cellStyle name="40% - 강조색5" xfId="38"/>
+    <cellStyle name="40% - 강조색6" xfId="42"/>
+    <cellStyle name="60% - 강조색1" xfId="23"/>
+    <cellStyle name="60% - 강조색2" xfId="27"/>
+    <cellStyle name="60% - 강조색3" xfId="31"/>
+    <cellStyle name="60% - 강조색4" xfId="35"/>
+    <cellStyle name="60% - 강조색5" xfId="39"/>
+    <cellStyle name="60% - 강조색6" xfId="43"/>
+    <cellStyle name="강조색1" xfId="21"/>
+    <cellStyle name="강조색2" xfId="24"/>
+    <cellStyle name="강조색3" xfId="28"/>
+    <cellStyle name="강조색4" xfId="32"/>
+    <cellStyle name="강조색5" xfId="36"/>
+    <cellStyle name="강조색6" xfId="40"/>
+    <cellStyle name="경고문" xfId="6"/>
+    <cellStyle name="계산" xfId="14"/>
+    <cellStyle name="나쁨" xfId="19"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="보통" xfId="20"/>
+    <cellStyle name="설명텍스트" xfId="44"/>
+    <cellStyle name="셀 확인" xfId="15"/>
+    <cellStyle name="연결된 셀" xfId="16"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
+    <cellStyle name="요약" xfId="17"/>
+    <cellStyle name="입력" xfId="12"/>
+    <cellStyle name="제목" xfId="7"/>
+    <cellStyle name="제목 1" xfId="8"/>
+    <cellStyle name="제목 2" xfId="9"/>
+    <cellStyle name="제목 3" xfId="10"/>
+    <cellStyle name="제목 4" xfId="11"/>
+    <cellStyle name="좋음" xfId="18"/>
+    <cellStyle name="출력" xfId="13"/>
+    <cellStyle name="하이퍼링크" xfId="4"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -859,40 +1305,53 @@
         <bottom style="thin">
           <color rgb="FF6182D6"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
       </font>
       <border>
         <top style="thin">
           <color rgb="FF6182D6"/>
         </top>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
       </font>
       <border>
         <bottom style="medium">
           <color rgb="FF6182D6"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <border>
@@ -904,6 +1363,7 @@
         <bottom style="medium">
           <color rgb="FF6182D6"/>
         </bottom>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -927,6 +1387,8 @@
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -939,6 +1401,8 @@
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -951,6 +1415,8 @@
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -963,11 +1429,14 @@
         <top style="thick">
           <color rgb="FFFFFFFF"/>
         </top>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -980,10 +1449,13 @@
         <bottom style="thick">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -1005,6 +1477,7 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1014,8 +1487,8 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1024,7 +1497,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" pivot="1" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1034,14 +1507,6 @@
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1336,21 +1801,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="16384" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>36</v>
@@ -1410,7 +1874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1472,11 +1936,11 @@
         <v>1</v>
       </c>
       <c r="U2" s="2">
-        <f t="shared" ref="U2:U27" si="0">SUM(B2:T2)</f>
+        <f>SUM(B2:T2)</f>
         <v>18.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1538,15 +2002,15 @@
         <v>1</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B3:T3)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2">
@@ -1591,7 +2055,7 @@
       <c r="P4" s="2">
         <v>0</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="2">
         <v>1</v>
       </c>
       <c r="R4" s="2">
@@ -1604,11 +2068,11 @@
         <v>1</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:T4)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1657,7 +2121,7 @@
       <c r="P5" s="2">
         <v>0</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="2">
         <v>0</v>
       </c>
       <c r="R5" s="2">
@@ -1670,11 +2134,11 @@
         <v>1</v>
       </c>
       <c r="U5" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:T5)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1736,11 +2200,11 @@
         <v>1</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:T6)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1802,11 +2266,11 @@
         <v>1</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:T7)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1868,11 +2332,11 @@
         <v>0</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:T8)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1934,11 +2398,11 @@
         <v>0.5</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:T9)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2000,11 +2464,11 @@
         <v>1</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:T10)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2066,11 +2530,11 @@
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:T11)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2132,11 +2596,11 @@
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:T12)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2198,11 +2662,11 @@
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:T13)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2264,11 +2728,11 @@
         <v>0.5</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:T14)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2302,6 +2766,9 @@
       <c r="K15" s="2">
         <v>1</v>
       </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
       <c r="M15" s="2">
         <v>1</v>
       </c>
@@ -2327,23 +2794,77 @@
         <v>0</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>SUM(B15:T15)</f>
+        <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
       <c r="U16" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(B16:T16)</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2405,11 +2926,11 @@
         <v>1</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:T17)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2471,11 +2992,11 @@
         <v>0</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:T18)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -2509,6 +3030,9 @@
       <c r="K19" s="2">
         <v>1</v>
       </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
@@ -2534,16 +3058,77 @@
         <v>0.5</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>SUM(B19:T19)</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2">
+        <f>SUM(B20:T20)</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -2604,145 +3189,149 @@
       <c r="T21" s="2">
         <v>1</v>
       </c>
+      <c r="U21" s="2">
+        <f>SUM(B21:T21)</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:T22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:T23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:T24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:T25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:T26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:T27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" ref="B28:T28" si="1">SUM(B2:B27)</f>
+        <f>SUM(B2:B27)</f>
+        <v>15</v>
+      </c>
+      <c r="C28" s="4">
+        <f>SUM(C2:C27)</f>
+        <v>16.5</v>
+      </c>
+      <c r="D28" s="4">
+        <f>SUM(D2:D27)</f>
         <v>14.5</v>
       </c>
-      <c r="C28" s="4">
-        <f t="shared" si="1"/>
+      <c r="E28" s="4">
+        <f>SUM(E2:E27)</f>
+        <v>13</v>
+      </c>
+      <c r="F28" s="4">
+        <f>SUM(F2:F27)</f>
+        <v>16</v>
+      </c>
+      <c r="G28" s="4">
+        <f>SUM(G2:G27)</f>
+        <v>13.5</v>
+      </c>
+      <c r="H28" s="4">
+        <f>SUM(H2:H27)</f>
+        <v>16</v>
+      </c>
+      <c r="I28" s="4">
+        <f>SUM(I2:I27)</f>
+        <v>15.5</v>
+      </c>
+      <c r="J28" s="4">
+        <f>SUM(J2:J27)</f>
+        <v>10.5</v>
+      </c>
+      <c r="K28" s="4">
+        <f>SUM(K2:K27)</f>
         <v>15</v>
       </c>
-      <c r="D28" s="4">
-        <f t="shared" si="1"/>
+      <c r="L28" s="4">
+        <f>SUM(L2:L27)</f>
         <v>13.5</v>
       </c>
-      <c r="E28" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="1"/>
-        <v>11.5</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="1"/>
+      <c r="M28" s="4">
+        <f>SUM(M2:M27)</f>
+        <v>14.5</v>
+      </c>
+      <c r="N28" s="4">
+        <f>SUM(N2:N27)</f>
+        <v>16</v>
+      </c>
+      <c r="O28" s="4">
+        <f>SUM(O2:O27)</f>
+        <v>15.5</v>
+      </c>
+      <c r="P28" s="4">
+        <f>SUM(P2:P27)</f>
         <v>9.5</v>
       </c>
-      <c r="M28" s="4">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-      <c r="N28" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="O28" s="4">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
-      </c>
       <c r="Q28" s="4">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>SUM(Q2:Q27)</f>
+        <v>11</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f>SUM(R2:R27)</f>
+        <v>16</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>SUM(S2:S27)</f>
+        <v>12.5</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
+        <f>SUM(T2:T27)</f>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/PPT data/3 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/3 week/test/인원별 맞은개수.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="5" rupBuild="8.1.835.35184"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -312,12 +312,6 @@
       <b/>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
       <color theme="1"/>
     </font>
     <font>
@@ -666,7 +660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -782,21 +776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -809,71 +788,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,7 +962,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -1055,34 +971,34 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="16" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1094,76 +1010,76 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="49" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="50" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="53" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="54" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="48" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="51" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="52" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="54" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="55" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -1805,7 +1721,7 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -2803,7 +2719,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>0.5</v>
@@ -2861,7 +2777,7 @@
       </c>
       <c r="U16" s="2">
         <f>SUM(B16:T16)</f>
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -3254,7 +3170,7 @@
       </c>
       <c r="B28" s="4">
         <f>SUM(B2:B27)</f>
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="C28" s="4">
         <f>SUM(C2:C27)</f>
